--- a/artfynd/A 36373-2023.xlsx
+++ b/artfynd/A 36373-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY9"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1606,6 +1606,1377 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111936866</v>
+      </c>
+      <c r="B10" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>448765.5992023234</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7087416.731054713</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111936792</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90087</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>448761.1990147882</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7087578.827763715</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111936867</v>
+      </c>
+      <c r="B12" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>448791.554596175</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7087386.366048628</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111936798</v>
+      </c>
+      <c r="B13" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>448923.1251473558</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7087371.00725084</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111936868</v>
+      </c>
+      <c r="B14" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>448988.017639213</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7087186.778340456</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111936795</v>
+      </c>
+      <c r="B15" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>448749.3706757246</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7087421.839990681</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111936865</v>
+      </c>
+      <c r="B16" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>448738.4239939091</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7087426.42220111</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111936796</v>
+      </c>
+      <c r="B17" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>448882.8980770012</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7087229.443335658</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111936858</v>
+      </c>
+      <c r="B18" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>448737.3665225056</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7087496.445579056</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111936893</v>
+      </c>
+      <c r="B19" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>448742.3011697636</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7087501.648173723</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111936870</v>
+      </c>
+      <c r="B20" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>449019.027096529</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7087276.979166135</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111936869</v>
+      </c>
+      <c r="B21" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>rörvattsbodarna, Jmt</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>449143.8568242944</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7087117.752608996</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Hotagen</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 36373-2023.xlsx
+++ b/artfynd/A 36373-2023.xlsx
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936866</v>
+        <v>111936796</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,34 +1624,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>448765.5992023234</v>
+        <v>448882.8980770012</v>
       </c>
       <c r="R10" t="n">
-        <v>7087416.731054713</v>
+        <v>7087229.443335658</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1694,6 +1698,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1720,10 +1729,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936792</v>
+        <v>111936866</v>
       </c>
       <c r="B11" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1732,25 +1741,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1760,10 +1769,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>448761.1990147882</v>
+        <v>448765.5992023234</v>
       </c>
       <c r="R11" t="n">
-        <v>7087578.827763715</v>
+        <v>7087416.731054713</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1832,10 +1841,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936867</v>
+        <v>111936893</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1848,21 +1857,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1872,10 +1881,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>448791.554596175</v>
+        <v>448742.3011697636</v>
       </c>
       <c r="R12" t="n">
-        <v>7087386.366048628</v>
+        <v>7087501.648173723</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1944,10 +1953,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936798</v>
+        <v>111936870</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1960,38 +1969,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>448923.1251473558</v>
+        <v>449019.027096529</v>
       </c>
       <c r="R13" t="n">
-        <v>7087371.00725084</v>
+        <v>7087276.979166135</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2034,11 +2039,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2065,10 +2065,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936868</v>
+        <v>111936795</v>
       </c>
       <c r="B14" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2081,34 +2081,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>448988.017639213</v>
+        <v>448749.3706757246</v>
       </c>
       <c r="R14" t="n">
-        <v>7087186.778340456</v>
+        <v>7087421.839990681</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2151,6 +2155,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2177,10 +2186,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936795</v>
+        <v>111936869</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2193,38 +2202,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448749.3706757246</v>
+        <v>449143.8568242944</v>
       </c>
       <c r="R15" t="n">
-        <v>7087421.839990681</v>
+        <v>7087117.752608996</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2267,11 +2272,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2298,10 +2298,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936865</v>
+        <v>111936798</v>
       </c>
       <c r="B16" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2314,34 +2314,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448738.4239939091</v>
+        <v>448923.1251473558</v>
       </c>
       <c r="R16" t="n">
-        <v>7087426.42220111</v>
+        <v>7087371.00725084</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2384,6 +2388,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2410,10 +2419,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936796</v>
+        <v>111936868</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2426,38 +2435,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>448882.8980770012</v>
+        <v>448988.017639213</v>
       </c>
       <c r="R17" t="n">
-        <v>7087229.443335658</v>
+        <v>7087186.778340456</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2500,11 +2505,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2643,10 +2643,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936893</v>
+        <v>111936792</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2655,25 +2655,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>448742.3011697636</v>
+        <v>448761.1990147882</v>
       </c>
       <c r="R19" t="n">
-        <v>7087501.648173723</v>
+        <v>7087578.827763715</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936870</v>
+        <v>111936865</v>
       </c>
       <c r="B20" t="n">
         <v>89423</v>
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>449019.027096529</v>
+        <v>448738.4239939091</v>
       </c>
       <c r="R20" t="n">
-        <v>7087276.979166135</v>
+        <v>7087426.42220111</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936869</v>
+        <v>111936867</v>
       </c>
       <c r="B21" t="n">
         <v>89423</v>
@@ -2907,10 +2907,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>449143.8568242944</v>
+        <v>448791.554596175</v>
       </c>
       <c r="R21" t="n">
-        <v>7087117.752608996</v>
+        <v>7087386.366048628</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 36373-2023.xlsx
+++ b/artfynd/A 36373-2023.xlsx
@@ -1608,7 +1608,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936796</v>
+        <v>111936795</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>448882.8980770012</v>
+        <v>448749.3706757246</v>
       </c>
       <c r="R10" t="n">
-        <v>7087229.443335658</v>
+        <v>7087421.839990681</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1729,10 +1729,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936866</v>
+        <v>111936796</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1745,34 +1745,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>448765.5992023234</v>
+        <v>448882.8980770012</v>
       </c>
       <c r="R11" t="n">
-        <v>7087416.731054713</v>
+        <v>7087229.443335658</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1815,6 +1819,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1841,10 +1850,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936893</v>
+        <v>111936868</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1857,21 +1866,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1881,10 +1890,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>448742.3011697636</v>
+        <v>448988.017639213</v>
       </c>
       <c r="R12" t="n">
-        <v>7087501.648173723</v>
+        <v>7087186.778340456</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1953,7 +1962,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936870</v>
+        <v>111936867</v>
       </c>
       <c r="B13" t="n">
         <v>89423</v>
@@ -1993,10 +2002,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>449019.027096529</v>
+        <v>448791.554596175</v>
       </c>
       <c r="R13" t="n">
-        <v>7087276.979166135</v>
+        <v>7087386.366048628</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2065,10 +2074,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936795</v>
+        <v>111936870</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2081,38 +2090,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>448749.3706757246</v>
+        <v>449019.027096529</v>
       </c>
       <c r="R14" t="n">
-        <v>7087421.839990681</v>
+        <v>7087276.979166135</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2155,11 +2160,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2186,7 +2186,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936869</v>
+        <v>111936866</v>
       </c>
       <c r="B15" t="n">
         <v>89423</v>
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>449143.8568242944</v>
+        <v>448765.5992023234</v>
       </c>
       <c r="R15" t="n">
-        <v>7087117.752608996</v>
+        <v>7087416.731054713</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936868</v>
+        <v>111936869</v>
       </c>
       <c r="B17" t="n">
         <v>89423</v>
@@ -2459,10 +2459,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>448988.017639213</v>
+        <v>449143.8568242944</v>
       </c>
       <c r="R17" t="n">
-        <v>7087186.778340456</v>
+        <v>7087117.752608996</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936858</v>
+        <v>111936893</v>
       </c>
       <c r="B18" t="n">
-        <v>89845</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2543,25 +2543,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2571,10 +2571,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>448737.3665225056</v>
+        <v>448742.3011697636</v>
       </c>
       <c r="R18" t="n">
-        <v>7087496.445579056</v>
+        <v>7087501.648173723</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2643,10 +2643,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936792</v>
+        <v>111936858</v>
       </c>
       <c r="B19" t="n">
-        <v>90087</v>
+        <v>89845</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2655,25 +2655,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3298</v>
+        <v>1209</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2683,10 +2683,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>448761.1990147882</v>
+        <v>448737.3665225056</v>
       </c>
       <c r="R19" t="n">
-        <v>7087578.827763715</v>
+        <v>7087496.445579056</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2867,10 +2867,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936867</v>
+        <v>111936792</v>
       </c>
       <c r="B21" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2879,25 +2879,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2907,10 +2907,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>448791.554596175</v>
+        <v>448761.1990147882</v>
       </c>
       <c r="R21" t="n">
-        <v>7087386.366048628</v>
+        <v>7087578.827763715</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 36373-2023.xlsx
+++ b/artfynd/A 36373-2023.xlsx
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936795</v>
+        <v>111936869</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,38 +1624,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>448749.3706757246</v>
+        <v>449143.8568242944</v>
       </c>
       <c r="R10" t="n">
-        <v>7087421.839990681</v>
+        <v>7087117.752608996</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1698,11 +1694,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1850,10 +1841,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936868</v>
+        <v>111936792</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1862,25 +1853,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1890,10 +1881,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>448988.017639213</v>
+        <v>448761.1990147882</v>
       </c>
       <c r="R12" t="n">
-        <v>7087186.778340456</v>
+        <v>7087578.827763715</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1962,10 +1953,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936867</v>
+        <v>111936858</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>89845</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1974,25 +1965,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>1209</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2002,10 +1993,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>448791.554596175</v>
+        <v>448737.3665225056</v>
       </c>
       <c r="R13" t="n">
-        <v>7087386.366048628</v>
+        <v>7087496.445579056</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2074,10 +2065,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936870</v>
+        <v>111936795</v>
       </c>
       <c r="B14" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2090,34 +2081,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>449019.027096529</v>
+        <v>448749.3706757246</v>
       </c>
       <c r="R14" t="n">
-        <v>7087276.979166135</v>
+        <v>7087421.839990681</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2160,6 +2155,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2186,7 +2186,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936866</v>
+        <v>111936865</v>
       </c>
       <c r="B15" t="n">
         <v>89423</v>
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448765.5992023234</v>
+        <v>448738.4239939091</v>
       </c>
       <c r="R15" t="n">
-        <v>7087416.731054713</v>
+        <v>7087426.42220111</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936798</v>
+        <v>111936870</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2314,38 +2314,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448923.1251473558</v>
+        <v>449019.027096529</v>
       </c>
       <c r="R16" t="n">
-        <v>7087371.00725084</v>
+        <v>7087276.979166135</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2388,11 +2384,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2419,10 +2410,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936869</v>
+        <v>111936893</v>
       </c>
       <c r="B17" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2435,21 +2426,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2459,10 +2450,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>449143.8568242944</v>
+        <v>448742.3011697636</v>
       </c>
       <c r="R17" t="n">
-        <v>7087117.752608996</v>
+        <v>7087501.648173723</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2531,10 +2522,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936893</v>
+        <v>111936866</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2547,21 +2538,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2571,10 +2562,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>448742.3011697636</v>
+        <v>448765.5992023234</v>
       </c>
       <c r="R18" t="n">
-        <v>7087501.648173723</v>
+        <v>7087416.731054713</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2643,10 +2634,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936858</v>
+        <v>111936798</v>
       </c>
       <c r="B19" t="n">
-        <v>89845</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2655,38 +2646,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1209</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>448737.3665225056</v>
+        <v>448923.1251473558</v>
       </c>
       <c r="R19" t="n">
-        <v>7087496.445579056</v>
+        <v>7087371.00725084</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2729,6 +2724,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2755,7 +2755,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936865</v>
+        <v>111936867</v>
       </c>
       <c r="B20" t="n">
         <v>89423</v>
@@ -2795,10 +2795,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448738.4239939091</v>
+        <v>448791.554596175</v>
       </c>
       <c r="R20" t="n">
-        <v>7087426.42220111</v>
+        <v>7087386.366048628</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2867,10 +2867,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936792</v>
+        <v>111936868</v>
       </c>
       <c r="B21" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2879,25 +2879,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2907,10 +2907,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>448761.1990147882</v>
+        <v>448988.017639213</v>
       </c>
       <c r="R21" t="n">
-        <v>7087578.827763715</v>
+        <v>7087186.778340456</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 36373-2023.xlsx
+++ b/artfynd/A 36373-2023.xlsx
@@ -1720,10 +1720,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936796</v>
+        <v>111936868</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,38 +1736,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>448882.8980770012</v>
+        <v>448988.017639213</v>
       </c>
       <c r="R11" t="n">
-        <v>7087229.443335658</v>
+        <v>7087186.778340456</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,11 +1806,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1841,10 +1832,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936792</v>
+        <v>111936870</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1853,25 +1844,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1881,10 +1872,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>448761.1990147882</v>
+        <v>449019.027096529</v>
       </c>
       <c r="R12" t="n">
-        <v>7087578.827763715</v>
+        <v>7087276.979166135</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1953,10 +1944,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936858</v>
+        <v>111936865</v>
       </c>
       <c r="B13" t="n">
-        <v>89845</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1965,25 +1956,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1993,10 +1984,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>448737.3665225056</v>
+        <v>448738.4239939091</v>
       </c>
       <c r="R13" t="n">
-        <v>7087496.445579056</v>
+        <v>7087426.42220111</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2065,10 +2056,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936795</v>
+        <v>111936893</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2081,38 +2072,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>448749.3706757246</v>
+        <v>448742.3011697636</v>
       </c>
       <c r="R14" t="n">
-        <v>7087421.839990681</v>
+        <v>7087501.648173723</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2155,11 +2142,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2186,7 +2168,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936865</v>
+        <v>111936866</v>
       </c>
       <c r="B15" t="n">
         <v>89423</v>
@@ -2226,10 +2208,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448738.4239939091</v>
+        <v>448765.5992023234</v>
       </c>
       <c r="R15" t="n">
-        <v>7087426.42220111</v>
+        <v>7087416.731054713</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2298,10 +2280,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936870</v>
+        <v>111936798</v>
       </c>
       <c r="B16" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2314,34 +2296,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>449019.027096529</v>
+        <v>448923.1251473558</v>
       </c>
       <c r="R16" t="n">
-        <v>7087276.979166135</v>
+        <v>7087371.00725084</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2384,6 +2370,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2410,10 +2401,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936893</v>
+        <v>111936792</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2422,25 +2413,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2450,10 +2441,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>448742.3011697636</v>
+        <v>448761.1990147882</v>
       </c>
       <c r="R17" t="n">
-        <v>7087501.648173723</v>
+        <v>7087578.827763715</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2522,10 +2513,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936866</v>
+        <v>111936858</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>89845</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2534,25 +2525,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>1209</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2562,10 +2553,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>448765.5992023234</v>
+        <v>448737.3665225056</v>
       </c>
       <c r="R18" t="n">
-        <v>7087416.731054713</v>
+        <v>7087496.445579056</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2634,10 +2625,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936798</v>
+        <v>111936867</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2650,38 +2641,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>448923.1251473558</v>
+        <v>448791.554596175</v>
       </c>
       <c r="R19" t="n">
-        <v>7087371.00725084</v>
+        <v>7087386.366048628</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2724,11 +2711,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2755,10 +2737,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936867</v>
+        <v>111936796</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2771,34 +2753,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448791.554596175</v>
+        <v>448882.8980770012</v>
       </c>
       <c r="R20" t="n">
-        <v>7087386.366048628</v>
+        <v>7087229.443335658</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2841,6 +2827,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2867,10 +2858,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936868</v>
+        <v>111936795</v>
       </c>
       <c r="B21" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2883,34 +2874,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>448988.017639213</v>
+        <v>448749.3706757246</v>
       </c>
       <c r="R21" t="n">
-        <v>7087186.778340456</v>
+        <v>7087421.839990681</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2953,6 +2948,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 36373-2023.xlsx
+++ b/artfynd/A 36373-2023.xlsx
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936869</v>
+        <v>111936796</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,34 +1624,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>449143.8568242944</v>
+        <v>448883</v>
       </c>
       <c r="R10" t="n">
-        <v>7087117.752608996</v>
+        <v>7087229</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1681,19 +1685,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1720,10 +1719,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936868</v>
+        <v>111936858</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>89845</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1732,25 +1731,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1760,10 +1759,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>448988.017639213</v>
+        <v>448737</v>
       </c>
       <c r="R11" t="n">
-        <v>7087186.778340456</v>
+        <v>7087496</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1793,19 +1792,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1832,7 +1821,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936870</v>
+        <v>111936866</v>
       </c>
       <c r="B12" t="n">
         <v>89423</v>
@@ -1872,10 +1861,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>449019.027096529</v>
+        <v>448766</v>
       </c>
       <c r="R12" t="n">
-        <v>7087276.979166135</v>
+        <v>7087417</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1905,19 +1894,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1944,7 +1923,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936865</v>
+        <v>111936870</v>
       </c>
       <c r="B13" t="n">
         <v>89423</v>
@@ -1984,10 +1963,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>448738.4239939091</v>
+        <v>449019</v>
       </c>
       <c r="R13" t="n">
-        <v>7087426.42220111</v>
+        <v>7087277</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2017,19 +1996,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2056,10 +2025,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936893</v>
+        <v>111936798</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2072,34 +2041,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>448742.3011697636</v>
+        <v>448923</v>
       </c>
       <c r="R14" t="n">
-        <v>7087501.648173723</v>
+        <v>7087371</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2129,19 +2102,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2168,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936866</v>
+        <v>111936792</v>
       </c>
       <c r="B15" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2180,25 +2148,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2208,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448765.5992023234</v>
+        <v>448761</v>
       </c>
       <c r="R15" t="n">
-        <v>7087416.731054713</v>
+        <v>7087579</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2241,19 +2209,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2280,10 +2238,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936798</v>
+        <v>111936868</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2296,38 +2254,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448923.1251473558</v>
+        <v>448988</v>
       </c>
       <c r="R16" t="n">
-        <v>7087371.00725084</v>
+        <v>7087187</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2357,24 +2311,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2401,10 +2340,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936792</v>
+        <v>111936867</v>
       </c>
       <c r="B17" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2413,25 +2352,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2441,10 +2380,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>448761.1990147882</v>
+        <v>448792</v>
       </c>
       <c r="R17" t="n">
-        <v>7087578.827763715</v>
+        <v>7087386</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2474,19 +2413,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2513,10 +2442,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936858</v>
+        <v>111936893</v>
       </c>
       <c r="B18" t="n">
-        <v>89845</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2525,25 +2454,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2553,10 +2482,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>448737.3665225056</v>
+        <v>448742</v>
       </c>
       <c r="R18" t="n">
-        <v>7087496.445579056</v>
+        <v>7087502</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2586,19 +2515,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2625,10 +2544,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936867</v>
+        <v>111936795</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2641,34 +2560,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>448791.554596175</v>
+        <v>448749</v>
       </c>
       <c r="R19" t="n">
-        <v>7087386.366048628</v>
+        <v>7087422</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2698,19 +2621,14 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2737,10 +2655,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936796</v>
+        <v>111936865</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2753,38 +2671,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448882.8980770012</v>
+        <v>448738</v>
       </c>
       <c r="R20" t="n">
-        <v>7087229.443335658</v>
+        <v>7087426</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2814,24 +2728,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2858,10 +2757,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936795</v>
+        <v>111936869</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2874,38 +2773,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>448749.3706757246</v>
+        <v>449144</v>
       </c>
       <c r="R21" t="n">
-        <v>7087421.839990681</v>
+        <v>7087118</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2935,24 +2830,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">

--- a/artfynd/A 36373-2023.xlsx
+++ b/artfynd/A 36373-2023.xlsx
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936796</v>
+        <v>111936866</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,38 +1624,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>448883</v>
+        <v>448766</v>
       </c>
       <c r="R10" t="n">
-        <v>7087229</v>
+        <v>7087417</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,11 +1684,6 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1719,10 +1710,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936858</v>
+        <v>111936792</v>
       </c>
       <c r="B11" t="n">
-        <v>89845</v>
+        <v>90221</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1731,25 +1722,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1209</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1759,10 +1750,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>448737</v>
+        <v>448761</v>
       </c>
       <c r="R11" t="n">
-        <v>7087496</v>
+        <v>7087579</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1821,10 +1812,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936866</v>
+        <v>111936865</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1861,10 +1852,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>448766</v>
+        <v>448738</v>
       </c>
       <c r="R12" t="n">
-        <v>7087417</v>
+        <v>7087426</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1923,10 +1914,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936870</v>
+        <v>111936893</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>77636</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1939,21 +1930,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1963,10 +1954,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>449019</v>
+        <v>448742</v>
       </c>
       <c r="R13" t="n">
-        <v>7087277</v>
+        <v>7087502</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2025,10 +2016,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111936798</v>
+        <v>111936796</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2069,10 +2060,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>448923</v>
+        <v>448883</v>
       </c>
       <c r="R14" t="n">
-        <v>7087371</v>
+        <v>7087229</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2136,10 +2127,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936792</v>
+        <v>111936798</v>
       </c>
       <c r="B15" t="n">
-        <v>90087</v>
+        <v>56430</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2148,38 +2139,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448761</v>
+        <v>448923</v>
       </c>
       <c r="R15" t="n">
-        <v>7087579</v>
+        <v>7087371</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2212,6 +2207,11 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2238,10 +2238,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936868</v>
+        <v>111936870</v>
       </c>
       <c r="B16" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448988</v>
+        <v>449019</v>
       </c>
       <c r="R16" t="n">
-        <v>7087187</v>
+        <v>7087277</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2340,10 +2340,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936867</v>
+        <v>111936795</v>
       </c>
       <c r="B17" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2356,34 +2356,38 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>448792</v>
+        <v>448749</v>
       </c>
       <c r="R17" t="n">
-        <v>7087386</v>
+        <v>7087422</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2416,6 +2420,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2442,10 +2451,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936893</v>
+        <v>111936858</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>89979</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2454,25 +2463,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2482,10 +2491,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>448742</v>
+        <v>448737</v>
       </c>
       <c r="R18" t="n">
-        <v>7087502</v>
+        <v>7087496</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2544,10 +2553,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936795</v>
+        <v>111936869</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2560,38 +2569,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>448749</v>
+        <v>449144</v>
       </c>
       <c r="R19" t="n">
-        <v>7087422</v>
+        <v>7087118</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2624,11 +2629,6 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2655,10 +2655,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936865</v>
+        <v>111936867</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2695,10 +2695,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448738</v>
+        <v>448792</v>
       </c>
       <c r="R20" t="n">
-        <v>7087426</v>
+        <v>7087386</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2757,10 +2757,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936869</v>
+        <v>111936868</v>
       </c>
       <c r="B21" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2797,10 +2797,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>449144</v>
+        <v>448988</v>
       </c>
       <c r="R21" t="n">
-        <v>7087118</v>
+        <v>7087187</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 36373-2023.xlsx
+++ b/artfynd/A 36373-2023.xlsx
@@ -2127,10 +2127,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936798</v>
+        <v>111936870</v>
       </c>
       <c r="B15" t="n">
-        <v>56430</v>
+        <v>89557</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2143,38 +2143,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448923</v>
+        <v>449019</v>
       </c>
       <c r="R15" t="n">
-        <v>7087371</v>
+        <v>7087277</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2207,11 +2203,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2238,10 +2229,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936870</v>
+        <v>111936798</v>
       </c>
       <c r="B16" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2254,34 +2245,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>449019</v>
+        <v>448923</v>
       </c>
       <c r="R16" t="n">
-        <v>7087277</v>
+        <v>7087371</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2314,6 +2309,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">

--- a/artfynd/A 36373-2023.xlsx
+++ b/artfynd/A 36373-2023.xlsx
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936866</v>
+        <v>111936893</v>
       </c>
       <c r="B10" t="n">
-        <v>89557</v>
+        <v>77650</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,21 +1624,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1648,10 +1648,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>448766</v>
+        <v>448742</v>
       </c>
       <c r="R10" t="n">
-        <v>7087417</v>
+        <v>7087502</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1710,10 +1710,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936792</v>
+        <v>111936869</v>
       </c>
       <c r="B11" t="n">
-        <v>90221</v>
+        <v>89571</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1722,25 +1722,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>448761</v>
+        <v>449144</v>
       </c>
       <c r="R11" t="n">
-        <v>7087579</v>
+        <v>7087118</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936865</v>
+        <v>111936798</v>
       </c>
       <c r="B12" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1828,34 +1828,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>448738</v>
+        <v>448923</v>
       </c>
       <c r="R12" t="n">
-        <v>7087426</v>
+        <v>7087371</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1888,6 +1892,11 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1914,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936893</v>
+        <v>111936868</v>
       </c>
       <c r="B13" t="n">
-        <v>77636</v>
+        <v>89571</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1930,21 +1939,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1954,10 +1963,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>448742</v>
+        <v>448988</v>
       </c>
       <c r="R13" t="n">
-        <v>7087502</v>
+        <v>7087187</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2127,10 +2136,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936870</v>
+        <v>111936866</v>
       </c>
       <c r="B15" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2167,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>449019</v>
+        <v>448766</v>
       </c>
       <c r="R15" t="n">
-        <v>7087277</v>
+        <v>7087417</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2229,10 +2238,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936798</v>
+        <v>111936870</v>
       </c>
       <c r="B16" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2245,38 +2254,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448923</v>
+        <v>449019</v>
       </c>
       <c r="R16" t="n">
-        <v>7087371</v>
+        <v>7087277</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2309,11 +2314,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2340,10 +2340,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936795</v>
+        <v>111936865</v>
       </c>
       <c r="B17" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2356,38 +2356,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>448749</v>
+        <v>448738</v>
       </c>
       <c r="R17" t="n">
-        <v>7087422</v>
+        <v>7087426</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2420,11 +2416,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2454,7 +2445,7 @@
         <v>111936858</v>
       </c>
       <c r="B18" t="n">
-        <v>89979</v>
+        <v>89993</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2553,10 +2544,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936869</v>
+        <v>111936795</v>
       </c>
       <c r="B19" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2569,34 +2560,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>449144</v>
+        <v>448749</v>
       </c>
       <c r="R19" t="n">
-        <v>7087118</v>
+        <v>7087422</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2629,6 +2624,11 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2655,10 +2655,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936867</v>
+        <v>111936792</v>
       </c>
       <c r="B20" t="n">
-        <v>89557</v>
+        <v>90235</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2667,25 +2667,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2695,10 +2695,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448792</v>
+        <v>448761</v>
       </c>
       <c r="R20" t="n">
-        <v>7087386</v>
+        <v>7087579</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2757,10 +2757,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936868</v>
+        <v>111936867</v>
       </c>
       <c r="B21" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2797,10 +2797,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>448988</v>
+        <v>448792</v>
       </c>
       <c r="R21" t="n">
-        <v>7087187</v>
+        <v>7087386</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 36373-2023.xlsx
+++ b/artfynd/A 36373-2023.xlsx
@@ -1608,10 +1608,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111936893</v>
+        <v>111936798</v>
       </c>
       <c r="B10" t="n">
-        <v>77650</v>
+        <v>56430</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,34 +1624,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>448742</v>
+        <v>448923</v>
       </c>
       <c r="R10" t="n">
-        <v>7087502</v>
+        <v>7087371</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1684,6 +1688,11 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1710,7 +1719,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111936869</v>
+        <v>111936865</v>
       </c>
       <c r="B11" t="n">
         <v>89571</v>
@@ -1750,10 +1759,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>449144</v>
+        <v>448738</v>
       </c>
       <c r="R11" t="n">
-        <v>7087118</v>
+        <v>7087426</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1812,10 +1821,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111936798</v>
+        <v>111936858</v>
       </c>
       <c r="B12" t="n">
-        <v>56430</v>
+        <v>89993</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1824,42 +1833,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>1209</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>448923</v>
+        <v>448737</v>
       </c>
       <c r="R12" t="n">
-        <v>7087371</v>
+        <v>7087496</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1892,11 +1897,6 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111936868</v>
+        <v>111936795</v>
       </c>
       <c r="B13" t="n">
-        <v>89571</v>
+        <v>56430</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1939,34 +1939,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>448988</v>
+        <v>448749</v>
       </c>
       <c r="R13" t="n">
-        <v>7087187</v>
+        <v>7087422</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1999,6 +2003,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2136,7 +2145,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111936866</v>
+        <v>111936870</v>
       </c>
       <c r="B15" t="n">
         <v>89571</v>
@@ -2176,10 +2185,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448766</v>
+        <v>449019</v>
       </c>
       <c r="R15" t="n">
-        <v>7087417</v>
+        <v>7087277</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2238,10 +2247,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111936870</v>
+        <v>111936792</v>
       </c>
       <c r="B16" t="n">
-        <v>89571</v>
+        <v>90235</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2250,25 +2259,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2278,10 +2287,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>449019</v>
+        <v>448761</v>
       </c>
       <c r="R16" t="n">
-        <v>7087277</v>
+        <v>7087579</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2340,10 +2349,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111936865</v>
+        <v>111936893</v>
       </c>
       <c r="B17" t="n">
-        <v>89571</v>
+        <v>77650</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2356,21 +2365,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2380,10 +2389,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>448738</v>
+        <v>448742</v>
       </c>
       <c r="R17" t="n">
-        <v>7087426</v>
+        <v>7087502</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2442,10 +2451,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111936858</v>
+        <v>111936869</v>
       </c>
       <c r="B18" t="n">
-        <v>89993</v>
+        <v>89571</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2454,25 +2463,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1209</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2482,10 +2491,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>448737</v>
+        <v>449144</v>
       </c>
       <c r="R18" t="n">
-        <v>7087496</v>
+        <v>7087118</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2544,10 +2553,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111936795</v>
+        <v>111936866</v>
       </c>
       <c r="B19" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2560,38 +2569,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>rörvattsbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>448749</v>
+        <v>448766</v>
       </c>
       <c r="R19" t="n">
-        <v>7087422</v>
+        <v>7087417</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2624,11 +2629,6 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2655,10 +2655,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111936792</v>
+        <v>111936867</v>
       </c>
       <c r="B20" t="n">
-        <v>90235</v>
+        <v>89571</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2667,25 +2667,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2695,10 +2695,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448761</v>
+        <v>448792</v>
       </c>
       <c r="R20" t="n">
-        <v>7087579</v>
+        <v>7087386</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111936867</v>
+        <v>111936868</v>
       </c>
       <c r="B21" t="n">
         <v>89571</v>
@@ -2797,10 +2797,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>448792</v>
+        <v>448988</v>
       </c>
       <c r="R21" t="n">
-        <v>7087386</v>
+        <v>7087187</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
